--- a/BioSTEAM 2.x.x/biorefineries/TAL/analyses/near_term_improvements-system_TAL_adsorption_glucose-2022.4.11-22.34_5000sims_0_single_point.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/TAL/analyses/near_term_improvements-system_TAL_adsorption_glucose-2022.4.11-22.34_5000sims_0_single_point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\BioSTEAM 2.x.x\biorefineries\TAL\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1AA3DA-2B9A-4989-B5C0-5385F7B9DB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBFBC0-9C59-4D73-9F37-70DDD1D2A58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,9 +302,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,279 +666,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2" t="s">
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2" t="s">
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:63" s="3" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -946,7 +949,7 @@
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>2.699287770171471</v>
       </c>
       <c r="C4">
@@ -955,7 +958,7 @@
       <c r="D4">
         <v>0.95238095238095233</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2.8342501836878151</v>
       </c>
       <c r="F4">
@@ -1013,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>6597.5828613559324</v>
+        <v>6597.5828613559297</v>
       </c>
       <c r="Y4">
         <v>101.1475795132046</v>
       </c>
       <c r="Z4">
-        <v>177.74292024734621</v>
+        <v>177.74292024734601</v>
       </c>
       <c r="AA4">
         <v>360.22597966384473</v>
@@ -1137,7 +1140,7 @@
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2.6988414773502258</v>
       </c>
       <c r="C5">
@@ -1146,7 +1149,7 @@
       <c r="D5">
         <v>0.95238095238095233</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>2.833786804597958</v>
       </c>
       <c r="F5">
@@ -1325,214 +1328,578 @@
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="R13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="BF13" s="4"/>
+      <c r="R13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="BF13" s="3"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="6"/>
-      <c r="BH16" s="6"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
     </row>
-    <row r="17" spans="14:63" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
+    <row r="17" spans="14:63" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+    </row>
+    <row r="18" spans="14:63" x14ac:dyDescent="0.3">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+    </row>
+    <row r="19" spans="14:63" x14ac:dyDescent="0.3">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+    </row>
+    <row r="20" spans="14:63" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+    </row>
+    <row r="21" spans="14:63" x14ac:dyDescent="0.3">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+    </row>
+    <row r="22" spans="14:63" x14ac:dyDescent="0.3">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+    </row>
+    <row r="23" spans="14:63" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+    </row>
+    <row r="24" spans="14:63" x14ac:dyDescent="0.3">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
